--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -2683,9 +2683,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -917,7 +917,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
   </si>
   <si>
     <t>Identification of the facility/location where the medication was shipped to, as part of the dispense event.
-調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocarionリソースへの参照。</t>
+調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocationリソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=DST].role</t>
@@ -1468,7 +1468,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>line</t>
@@ -1538,7 +1538,7 @@
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.
-指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dudgement.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
+指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dosage.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
   </si>
   <si>
     <t>Dosage.text</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
   <si>
     <t>Property</t>
   </si>
@@ -513,7 +513,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
 </t>
   </si>
   <si>
@@ -1349,6 +1349,10 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
     <t>Where the medication was sent　薬が送られた場所</t>
   </si>
   <si>
@@ -1368,7 +1372,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
@@ -2382,7 +2386,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -9092,13 +9096,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>286</v>
@@ -9169,21 +9173,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9206,13 +9210,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>286</v>
@@ -9265,7 +9269,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9283,13 +9287,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9297,7 +9301,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9320,16 +9324,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9379,7 +9383,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9394,10 +9398,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9406,12 +9410,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9434,16 +9438,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9493,7 +9497,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9511,7 +9515,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9525,7 +9529,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9551,7 +9555,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9637,7 +9641,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9751,10 +9755,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9776,13 +9780,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9865,10 +9869,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9890,13 +9894,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9979,10 +9983,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10004,13 +10008,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10093,10 +10097,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10118,13 +10122,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10207,7 +10211,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10323,7 +10327,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10346,17 +10350,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10405,7 +10409,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10423,7 +10427,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10432,12 +10436,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10463,14 +10467,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10519,7 +10523,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10537,7 +10541,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10546,12 +10550,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10577,16 +10581,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10614,10 +10618,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10635,7 +10639,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10653,7 +10657,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10662,12 +10666,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10693,10 +10697,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10747,7 +10751,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10765,7 +10769,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10774,12 +10778,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10802,19 +10806,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10863,7 +10867,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10881,7 +10885,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10895,7 +10899,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11007,7 +11011,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11121,7 +11125,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11237,7 +11241,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11263,14 +11267,14 @@
         <v>408</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11319,7 +11323,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11337,7 +11341,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11351,7 +11355,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11374,17 +11378,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11433,7 +11437,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11445,13 +11449,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11465,7 +11469,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11577,7 +11581,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11691,7 +11695,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11714,13 +11718,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11771,7 +11775,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11789,7 +11793,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11803,7 +11807,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11826,19 +11830,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11887,7 +11891,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11905,7 +11909,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11919,7 +11923,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11942,13 +11946,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11999,7 +12003,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12017,7 +12021,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12031,7 +12035,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12057,16 +12061,16 @@
         <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12115,7 +12119,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12133,7 +12137,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12147,7 +12151,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12173,16 +12177,16 @@
         <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12231,7 +12235,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12249,7 +12253,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12263,7 +12267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12289,10 +12293,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12322,10 +12326,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12343,7 +12347,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12361,7 +12365,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12375,7 +12379,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12398,13 +12402,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12412,7 +12416,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12457,7 +12461,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12475,7 +12479,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12489,7 +12493,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12512,13 +12516,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12569,7 +12573,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12587,7 +12591,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12601,7 +12605,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12627,10 +12631,10 @@
         <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12681,7 +12685,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12699,7 +12703,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12713,7 +12717,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12739,10 +12743,10 @@
         <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12793,7 +12797,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12811,7 +12815,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12825,7 +12829,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12851,10 +12855,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12884,10 +12888,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12905,7 +12909,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12923,7 +12927,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12937,7 +12941,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12963,13 +12967,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12999,7 +13003,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13017,7 +13021,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13049,7 +13053,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13072,16 +13076,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13131,7 +13135,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13163,7 +13167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13189,16 +13193,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13226,10 +13230,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13247,7 +13251,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13265,7 +13269,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13279,7 +13283,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13302,13 +13306,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13359,7 +13363,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13377,7 +13381,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13391,7 +13395,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13417,13 +13421,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13452,10 +13456,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13473,7 +13477,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13491,7 +13495,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13505,7 +13509,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13617,7 +13621,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13731,7 +13735,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13757,13 +13761,13 @@
         <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>228</v>
@@ -13847,7 +13851,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13959,7 +13963,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14073,7 +14077,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14189,7 +14193,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14303,7 +14307,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14417,7 +14421,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14531,7 +14535,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14647,7 +14651,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14763,7 +14767,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14786,16 +14790,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14824,10 +14828,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14845,7 +14849,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14863,7 +14867,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14872,12 +14876,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14903,16 +14907,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14940,10 +14944,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14961,7 +14965,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14979,7 +14983,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14988,12 +14992,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15019,16 +15023,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>346</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15056,10 +15060,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15077,7 +15081,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15095,7 +15099,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15104,12 +15108,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15135,16 +15139,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15172,10 +15176,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15193,7 +15197,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15211,7 +15215,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15220,12 +15224,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15248,13 +15252,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15305,7 +15309,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15332,12 +15336,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15449,7 +15453,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15563,7 +15567,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15589,14 +15593,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15624,10 +15628,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15645,7 +15649,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15672,12 +15676,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15700,19 +15704,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15761,7 +15765,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15779,7 +15783,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15788,12 +15792,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15816,19 +15820,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15877,7 +15881,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15895,7 +15899,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15904,12 +15908,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15932,19 +15936,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15993,7 +15997,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16011,7 +16015,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16020,12 +16024,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16051,16 +16055,16 @@
         <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16109,7 +16113,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16127,7 +16131,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16141,7 +16145,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16167,14 +16171,14 @@
         <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16223,7 +16227,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16241,7 +16245,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16255,7 +16259,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16281,10 +16285,10 @@
         <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16335,7 +16339,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16353,13 +16357,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16367,7 +16371,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16479,7 +16483,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16593,7 +16597,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16709,7 +16713,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16735,10 +16739,10 @@
         <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16789,7 +16793,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16807,7 +16811,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16821,7 +16825,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16847,13 +16851,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16882,10 +16886,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16903,7 +16907,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16927,15 +16931,15 @@
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16961,10 +16965,10 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>346</v>
@@ -16996,10 +17000,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17017,7 +17021,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17035,13 +17039,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17049,7 +17053,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17072,13 +17076,13 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>286</v>
@@ -17131,7 +17135,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17149,13 +17153,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17163,11 +17167,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17186,16 +17190,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17245,7 +17249,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17263,7 +17267,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17277,7 +17281,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17300,16 +17304,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17359,7 +17363,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17377,7 +17381,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
   <si>
     <t>Property</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5025,13 +5028,11 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5107,10 +5108,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5307,7 +5308,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5330,19 +5331,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5391,7 +5392,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5409,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5418,12 +5419,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5449,10 +5450,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5535,7 +5536,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5649,7 +5650,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5675,16 +5676,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5733,7 +5734,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5751,7 +5752,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5760,12 +5761,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5791,13 +5792,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5847,7 +5848,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5865,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5874,12 +5875,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5905,14 +5906,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5962,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5980,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5988,12 +5989,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6019,14 +6020,14 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6075,7 +6076,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6093,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6102,12 +6103,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6130,19 +6131,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6191,7 +6192,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6209,7 +6210,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6218,12 +6219,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6249,16 +6250,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6325,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6334,7 +6335,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
@@ -6342,7 +6343,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6364,7 +6365,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>218</v>
@@ -6455,7 +6456,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6478,16 +6479,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6537,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6552,24 +6553,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6592,16 +6593,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6651,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6666,10 +6667,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6683,7 +6684,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6706,16 +6707,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6765,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6783,10 +6784,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6797,7 +6798,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6820,13 +6821,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6877,7 +6878,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6892,10 +6893,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6909,7 +6910,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6935,10 +6936,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -7021,7 +7022,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7135,11 +7136,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7161,10 +7162,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7219,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7251,7 +7252,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7277,14 +7278,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7312,10 +7313,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7333,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7351,7 +7352,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7365,7 +7366,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7388,13 +7389,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7445,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7460,10 +7461,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7477,7 +7478,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7500,16 +7501,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7559,7 +7560,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7577,7 +7578,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7591,7 +7592,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7614,16 +7615,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7673,7 +7674,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7688,24 +7689,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7731,13 +7732,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7766,10 +7767,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7787,7 +7788,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7805,21 +7806,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7842,16 +7843,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7901,7 +7902,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7919,21 +7920,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7959,10 +7960,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8045,7 +8046,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8159,7 +8160,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8182,19 +8183,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8243,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8261,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8270,12 +8271,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8301,20 +8302,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8338,10 +8339,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8359,7 +8360,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8377,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8386,12 +8387,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8417,14 +8418,14 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8473,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8491,7 +8492,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8500,12 +8501,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8531,14 +8532,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8587,7 +8588,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8596,7 +8597,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8605,7 +8606,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8614,12 +8615,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8645,16 +8646,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8703,7 +8704,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8721,7 +8722,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8730,12 +8731,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8758,16 +8759,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8817,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8835,7 +8836,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8844,12 +8845,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8872,13 +8873,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8929,7 +8930,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8947,21 +8948,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8984,13 +8985,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9041,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9056,24 +9057,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9096,16 +9097,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9155,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9173,21 +9174,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9210,16 +9211,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9269,7 +9270,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9287,13 +9288,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9301,7 +9302,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9324,16 +9325,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9383,7 +9384,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9398,10 +9399,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9410,12 +9411,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9438,16 +9439,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9497,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9515,7 +9516,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9529,7 +9530,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9555,7 +9556,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9641,7 +9642,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9755,10 +9756,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9780,13 +9781,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9869,10 +9870,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9894,13 +9895,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9983,10 +9984,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10008,13 +10009,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10097,10 +10098,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10122,13 +10123,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10211,11 +10212,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10237,10 +10238,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10295,7 +10296,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10327,7 +10328,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10350,17 +10351,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10409,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10427,7 +10428,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10436,12 +10437,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10467,14 +10468,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10523,7 +10524,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10541,7 +10542,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10550,12 +10551,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10581,16 +10582,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10618,10 +10619,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10639,7 +10640,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10657,7 +10658,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10666,12 +10667,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10697,10 +10698,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10751,7 +10752,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10769,7 +10770,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10778,12 +10779,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10806,19 +10807,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10867,7 +10868,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10885,7 +10886,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10899,7 +10900,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10925,10 +10926,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11011,7 +11012,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11125,11 +11126,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11151,10 +11152,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11209,7 +11210,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11241,7 +11242,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11264,17 +11265,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11323,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11341,7 +11342,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11355,7 +11356,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11378,17 +11379,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11437,7 +11438,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11449,13 +11450,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11469,7 +11470,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11495,10 +11496,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11581,7 +11582,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11695,7 +11696,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11718,13 +11719,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11775,7 +11776,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11793,7 +11794,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11807,7 +11808,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11830,19 +11831,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11891,7 +11892,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11909,7 +11910,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11923,7 +11924,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11946,13 +11947,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12003,7 +12004,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12021,7 +12022,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12035,7 +12036,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12058,19 +12059,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12119,7 +12120,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12137,7 +12138,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12151,7 +12152,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12174,19 +12175,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12235,7 +12236,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12253,7 +12254,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12267,7 +12268,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12293,10 +12294,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12326,10 +12327,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12347,7 +12348,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12365,7 +12366,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12379,7 +12380,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12402,13 +12403,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12416,7 +12417,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12461,7 +12462,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12479,7 +12480,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12493,7 +12494,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12516,13 +12517,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12573,7 +12574,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12591,7 +12592,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12605,7 +12606,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12628,13 +12629,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12685,7 +12686,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12703,7 +12704,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12717,7 +12718,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12740,13 +12741,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12797,7 +12798,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12815,7 +12816,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12829,7 +12830,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12855,10 +12856,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12888,10 +12889,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12909,7 +12910,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12927,7 +12928,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12941,7 +12942,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12967,13 +12968,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13003,7 +13004,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13021,7 +13022,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13053,7 +13054,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13076,16 +13077,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13135,7 +13136,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13167,7 +13168,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13193,16 +13194,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13230,10 +13231,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13251,7 +13252,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13269,7 +13270,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13283,7 +13284,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13306,13 +13307,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13363,7 +13364,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13381,7 +13382,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13395,7 +13396,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13421,13 +13422,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13456,10 +13457,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13477,7 +13478,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13495,7 +13496,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13509,7 +13510,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13535,10 +13536,10 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13621,7 +13622,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13735,7 +13736,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13758,19 +13759,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13819,7 +13820,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13837,7 +13838,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13846,12 +13847,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13877,10 +13878,10 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13963,7 +13964,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14077,7 +14078,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14103,16 +14104,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14161,7 +14162,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14179,7 +14180,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14188,12 +14189,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14219,13 +14220,13 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14275,7 +14276,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14293,7 +14294,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14302,12 +14303,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14333,14 +14334,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14389,7 +14390,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14407,7 +14408,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14416,12 +14417,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14447,14 +14448,14 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14503,7 +14504,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14521,7 +14522,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14530,12 +14531,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14558,19 +14559,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14619,7 +14620,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14637,7 +14638,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14646,12 +14647,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14677,16 +14678,16 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14735,7 +14736,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14753,7 +14754,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14762,12 +14763,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14790,16 +14791,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14828,10 +14829,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14849,7 +14850,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14867,7 +14868,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14876,12 +14877,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14907,16 +14908,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14944,10 +14945,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14965,7 +14966,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14983,7 +14984,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14992,12 +14993,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15023,16 +15024,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15060,10 +15061,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15081,7 +15082,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15099,7 +15100,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15108,12 +15109,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15139,16 +15140,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15176,10 +15177,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15197,7 +15198,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15215,7 +15216,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15224,12 +15225,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15252,13 +15253,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15309,7 +15310,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15336,12 +15337,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15367,10 +15368,10 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15453,7 +15454,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15567,7 +15568,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15593,14 +15594,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15628,10 +15629,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15649,7 +15650,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15676,12 +15677,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15704,19 +15705,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15765,7 +15766,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15783,7 +15784,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15792,12 +15793,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15820,19 +15821,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15881,7 +15882,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15899,7 +15900,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15908,12 +15909,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15936,19 +15937,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15997,7 +15998,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16015,7 +16016,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16024,12 +16025,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16052,19 +16053,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16113,7 +16114,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16131,7 +16132,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16145,7 +16146,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16168,17 +16169,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16227,7 +16228,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16245,7 +16246,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16259,7 +16260,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16282,13 +16283,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16339,7 +16340,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16357,13 +16358,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16371,7 +16372,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16397,10 +16398,10 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16483,7 +16484,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16597,11 +16598,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16623,10 +16624,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16681,7 +16682,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16713,7 +16714,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16736,13 +16737,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16793,7 +16794,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16811,7 +16812,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16825,7 +16826,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16851,13 +16852,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16886,10 +16887,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16907,7 +16908,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16925,21 +16926,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16965,13 +16966,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17000,10 +17001,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17021,7 +17022,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17039,13 +17040,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17053,7 +17054,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17076,16 +17077,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17135,7 +17136,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17153,13 +17154,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17167,11 +17168,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17190,16 +17191,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17249,7 +17250,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17267,7 +17268,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17281,7 +17282,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17304,16 +17305,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17363,7 +17364,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17381,7 +17382,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -675,6 +675,10 @@
     <t>MedicationDispense.medication[x].id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
   </si>
   <si>
@@ -1462,7 +1466,7 @@
     <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
-    <t>隔日投与など、服⽤開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>periodOfUse</t>
@@ -4765,13 +4769,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4822,7 +4826,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4840,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4854,7 +4858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4880,10 +4884,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4927,7 +4931,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4936,7 +4940,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4954,7 +4958,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4971,7 +4975,7 @@
         <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
@@ -4996,13 +5000,13 @@
         <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -5032,7 +5036,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5105,13 +5109,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5162,7 +5166,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5180,7 +5184,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5194,7 +5198,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5220,10 +5224,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5267,7 +5271,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5276,7 +5280,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5294,7 +5298,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5308,7 +5312,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5331,19 +5335,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5392,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5410,7 +5414,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5419,12 +5423,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5447,13 +5451,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5504,7 +5508,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5522,7 +5526,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5536,7 +5540,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5562,10 +5566,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -5609,7 +5613,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5618,7 +5622,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5636,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5650,7 +5654,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5676,16 +5680,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5734,7 +5738,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5752,7 +5756,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5761,12 +5765,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5789,16 +5793,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5848,7 +5852,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5866,7 +5870,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5875,12 +5879,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5906,14 +5910,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5962,7 +5966,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5980,7 +5984,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5989,12 +5993,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6017,17 +6021,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6076,7 +6080,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6094,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6103,12 +6107,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6131,19 +6135,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6196,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6210,7 +6214,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6219,12 +6223,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6247,19 +6251,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6308,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6326,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6335,7 +6339,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -6343,7 +6347,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6365,16 +6369,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6456,7 +6460,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6479,16 +6483,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6538,7 +6542,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6553,24 +6557,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6593,16 +6597,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6652,7 +6656,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6667,10 +6671,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6684,7 +6688,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6707,16 +6711,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6766,7 +6770,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6784,10 +6788,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6798,7 +6802,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6821,13 +6825,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6878,7 +6882,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6893,10 +6897,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6910,7 +6914,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6933,13 +6937,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6990,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -7008,7 +7012,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -7022,7 +7026,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7048,10 +7052,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>147</v>
@@ -7104,7 +7108,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -7122,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7136,11 +7140,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7162,10 +7166,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7220,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7252,7 +7256,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7278,14 +7282,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7313,10 +7317,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7334,7 +7338,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7352,7 +7356,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7366,7 +7370,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7389,13 +7393,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7446,7 +7450,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7461,10 +7465,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7478,7 +7482,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7501,16 +7505,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7560,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7578,7 +7582,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7592,7 +7596,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7615,16 +7619,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7674,7 +7678,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7689,24 +7693,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7732,13 +7736,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7767,10 +7771,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7788,7 +7792,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7806,21 +7810,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7843,16 +7847,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7902,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7920,21 +7924,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7957,13 +7961,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8014,7 +8018,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8032,7 +8036,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8046,7 +8050,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8072,10 +8076,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>147</v>
@@ -8119,7 +8123,7 @@
         <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
@@ -8128,7 +8132,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -8146,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8160,7 +8164,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8183,19 +8187,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8244,7 +8248,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8271,12 +8275,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8302,20 +8306,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8339,10 +8343,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8360,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8378,7 +8382,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8387,12 +8391,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8415,17 +8419,17 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8474,7 +8478,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8492,7 +8496,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8501,12 +8505,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8532,14 +8536,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8588,7 +8592,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8597,7 +8601,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8606,7 +8610,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8615,12 +8619,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8646,16 +8650,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8704,7 +8708,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8722,7 +8726,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8731,12 +8735,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8759,16 +8763,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8818,7 +8822,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8836,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8845,12 +8849,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8873,13 +8877,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8930,7 +8934,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8948,21 +8952,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8985,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9042,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9057,24 +9061,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9097,16 +9101,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9156,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9174,21 +9178,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9211,16 +9215,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9270,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9288,13 +9292,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9302,7 +9306,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9325,16 +9329,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9384,7 +9388,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9399,10 +9403,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9411,12 +9415,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9439,16 +9443,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9498,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9516,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9534,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9553,13 +9557,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9610,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9628,7 +9632,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9642,7 +9646,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9668,10 +9672,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>147</v>
@@ -9715,7 +9719,7 @@
         <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
@@ -9724,7 +9728,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9756,10 +9760,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9781,13 +9785,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9838,7 +9842,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9895,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9952,7 +9956,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9984,10 +9988,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10009,13 +10013,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10066,7 +10070,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10098,10 +10102,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10123,13 +10127,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10180,7 +10184,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10212,11 +10216,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10238,10 +10242,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10296,7 +10300,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10328,7 +10332,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10351,17 +10355,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10410,7 +10414,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10428,7 +10432,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10437,12 +10441,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10465,17 +10469,17 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10524,7 +10528,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10542,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10551,12 +10555,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10582,16 +10586,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10619,10 +10623,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10640,7 +10644,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10658,7 +10662,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10667,12 +10671,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10695,13 +10699,13 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10752,7 +10756,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10774,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10779,12 +10783,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10807,19 +10811,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10868,7 +10872,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10886,7 +10890,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10900,7 +10904,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10923,13 +10927,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10980,7 +10984,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10998,7 +11002,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -11012,7 +11016,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11038,10 +11042,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>147</v>
@@ -11085,7 +11089,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -11094,7 +11098,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11112,7 +11116,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11126,11 +11130,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11152,10 +11156,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11210,7 +11214,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11242,7 +11246,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11265,17 +11269,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11324,7 +11328,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11342,7 +11346,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11356,7 +11360,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11379,17 +11383,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11438,7 +11442,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11450,13 +11454,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11470,7 +11474,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11493,13 +11497,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11550,7 +11554,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11568,7 +11572,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11582,7 +11586,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11608,10 +11612,10 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>147</v>
@@ -11655,7 +11659,7 @@
         <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
@@ -11664,7 +11668,7 @@
         <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11682,7 +11686,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11696,7 +11700,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11719,13 +11723,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11776,7 +11780,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11794,7 +11798,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11808,7 +11812,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11831,19 +11835,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11892,7 +11896,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11910,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11924,7 +11928,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11947,13 +11951,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12004,7 +12008,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12022,7 +12026,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12036,7 +12040,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12059,19 +12063,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12120,7 +12124,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12138,7 +12142,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12152,7 +12156,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12175,19 +12179,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12236,7 +12240,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12254,7 +12258,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12268,7 +12272,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12294,10 +12298,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12327,10 +12331,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12348,7 +12352,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12366,7 +12370,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12380,7 +12384,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12403,13 +12407,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12417,7 +12421,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12462,7 +12466,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12480,7 +12484,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12494,7 +12498,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12517,13 +12521,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12574,7 +12578,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12592,7 +12596,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12606,7 +12610,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12629,13 +12633,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12686,7 +12690,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12704,7 +12708,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12718,7 +12722,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12741,13 +12745,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12798,7 +12802,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12816,7 +12820,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12830,7 +12834,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12856,10 +12860,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12889,10 +12893,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12910,7 +12914,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12928,7 +12932,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12942,7 +12946,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12968,13 +12972,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13004,7 +13008,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13022,7 +13026,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13040,7 +13044,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13054,7 +13058,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13077,16 +13081,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13136,7 +13140,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13154,7 +13158,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13168,7 +13172,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13194,16 +13198,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13231,10 +13235,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13252,7 +13256,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13270,7 +13274,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13284,7 +13288,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13307,13 +13311,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13364,7 +13368,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13382,7 +13386,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13396,7 +13400,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13422,13 +13426,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13457,10 +13461,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13478,7 +13482,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13496,7 +13500,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13510,7 +13514,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13533,13 +13537,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13590,7 +13594,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13608,7 +13612,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13622,7 +13626,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13648,10 +13652,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>147</v>
@@ -13695,7 +13699,7 @@
         <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
@@ -13704,7 +13708,7 @@
         <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13722,7 +13726,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13736,7 +13740,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13759,19 +13763,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13820,7 +13824,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13838,7 +13842,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13847,12 +13851,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13875,13 +13879,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13932,7 +13936,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13950,7 +13954,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13964,7 +13968,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13990,10 +13994,10 @@
         <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>147</v>
@@ -14037,7 +14041,7 @@
         <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
@@ -14046,7 +14050,7 @@
         <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -14064,7 +14068,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14078,7 +14082,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14104,16 +14108,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14162,7 +14166,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14180,7 +14184,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14189,12 +14193,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14217,16 +14221,16 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14276,7 +14280,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14294,7 +14298,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14303,12 +14307,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14334,14 +14338,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14390,7 +14394,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14408,7 +14412,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14417,12 +14421,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14445,17 +14449,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14504,7 +14508,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14522,7 +14526,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14531,12 +14535,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14559,19 +14563,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14620,7 +14624,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14638,7 +14642,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14647,12 +14651,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14675,19 +14679,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14736,7 +14740,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14754,7 +14758,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14763,12 +14767,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14791,16 +14795,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14829,10 +14833,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14850,7 +14854,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14868,7 +14872,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14877,12 +14881,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14908,16 +14912,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14945,10 +14949,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14966,7 +14970,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14984,7 +14988,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14993,12 +14997,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15024,16 +15028,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15061,10 +15065,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15082,7 +15086,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15100,7 +15104,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15109,12 +15113,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15140,16 +15144,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15177,10 +15181,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15198,7 +15202,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15216,7 +15220,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15225,12 +15229,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15253,13 +15257,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15310,7 +15314,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15337,12 +15341,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15365,13 +15369,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15422,7 +15426,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15440,7 +15444,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15454,7 +15458,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15480,10 +15484,10 @@
         <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>147</v>
@@ -15527,7 +15531,7 @@
         <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
@@ -15536,7 +15540,7 @@
         <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15554,7 +15558,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15568,7 +15572,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15594,14 +15598,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15629,10 +15633,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15650,7 +15654,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15677,12 +15681,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15705,19 +15709,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15766,7 +15770,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15784,7 +15788,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15793,12 +15797,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15821,19 +15825,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15882,7 +15886,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15900,7 +15904,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15909,12 +15913,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15937,19 +15941,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15998,7 +16002,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16016,7 +16020,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16025,12 +16029,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16053,19 +16057,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16114,7 +16118,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16132,7 +16136,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16146,7 +16150,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16169,17 +16173,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16228,7 +16232,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16246,7 +16250,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16260,7 +16264,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16283,13 +16287,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16340,7 +16344,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16358,13 +16362,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16372,7 +16376,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16395,13 +16399,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16452,7 +16456,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16470,7 +16474,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16484,7 +16488,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16510,10 +16514,10 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>147</v>
@@ -16566,7 +16570,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16584,7 +16588,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16598,11 +16602,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16624,10 +16628,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16682,7 +16686,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16714,7 +16718,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16737,13 +16741,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16794,7 +16798,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16812,7 +16816,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16826,7 +16830,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16852,13 +16856,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16887,10 +16891,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16908,7 +16912,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16926,21 +16930,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16966,13 +16970,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17001,10 +17005,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17022,7 +17026,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17040,13 +17044,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17054,7 +17058,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17077,16 +17081,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17136,7 +17140,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17154,13 +17158,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17168,11 +17172,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17191,16 +17195,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17250,7 +17254,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17268,7 +17272,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17282,7 +17286,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17305,16 +17309,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17364,7 +17368,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17382,7 +17386,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,7 +258,7 @@
     <t>指定された患者への注射薬剤の払い出し</t>
   </si>
   <si>
-    <t>指定された患者・個人へ注射薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や注射薬剤の服用に関する指示も含まれる。薬剤払い出しは注射オーダーに対して薬局システムが対応した結果となる。</t>
+    <t>指定された患者・個人へ注射薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や注射薬剤の服用に関する指示も含まれる。薬剤払い出しは注射オーダに対して薬局システムが対応した結果となる。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -533,7 +533,7 @@
     <t>MedicationDispense.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown</t>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown 一連の調剤イベントの状態</t>
   </si>
   <si>
     <t>A code specifying the state of the set of dispense events.
@@ -710,11 +710,11 @@
 </t>
   </si>
   <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
+    <t>Encounter / Episode associated with event　調剤ベントに関連するEncounterやエピソード</t>
   </si>
   <si>
     <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
+調剤ベントに関連するEncounterやエピソードへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -900,7 +900,7 @@
     <t>MedicationDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>実行される調剤イベント</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
@@ -908,7 +908,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
@@ -933,7 +933,7 @@
 </t>
   </si>
   <si>
-    <t>払い出される薬剤の量</t>
+    <t>Trial fill, partial fill, emergency fill, etc. 払い出される薬剤の量</t>
   </si>
   <si>
     <t>調剤総量。
@@ -1060,7 +1060,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1079,10 +1079,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1095,7 +1092,7 @@
     <t>MedicationDispense.substitution</t>
   </si>
   <si>
-    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか。</t>
+    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか</t>
   </si>
   <si>
     <t>Indicates whether or not substitution was made as part of the dispense. In some cases, substitution will be expected but does not happen, in other cases substitution is not expected but does happen. This block explains what substitution did or did not happen and why. If nothing is specified, substitution was not done. 
@@ -1124,7 +1121,7 @@
 </t>
   </si>
   <si>
-    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す。</t>
+    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す</t>
   </si>
   <si>
     <t>True if the dispenser dispensed a different drug or product from what was prescribed. 
@@ -5852,10 +5849,10 @@
         <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5923,7 +5920,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5937,7 +5934,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5963,10 +5960,10 @@
         <v>229</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6017,7 +6014,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6035,13 +6032,13 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6049,7 +6046,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6161,7 +6158,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6275,7 +6272,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6391,7 +6388,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6414,13 +6411,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6471,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>86</v>
@@ -6489,7 +6486,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6503,7 +6500,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6529,13 +6526,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6564,11 +6561,11 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6585,7 +6582,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6609,15 +6606,15 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6643,10 +6640,10 @@
         <v>186</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>279</v>
@@ -6678,11 +6675,11 @@
         <v>180</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6699,7 +6696,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6717,13 +6714,13 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6731,7 +6728,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6754,13 +6751,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>211</v>
@@ -6813,7 +6810,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6831,13 +6828,13 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6845,11 +6842,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6868,16 +6865,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6927,7 +6924,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -6945,7 +6942,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6982,16 +6979,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7041,7 +7038,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7059,7 +7056,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -489,25 +489,272 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationDispense.partOf</t>
@@ -543,9 +790,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
@@ -594,10 +838,6 @@
   </si>
   <si>
     <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type of medication dispense　調剤タイプ</t>
@@ -766,32 +1006,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1559,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1595,7 +1810,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2876,7 +3091,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2938,16 +3153,14 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
@@ -2965,16 +3178,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2982,18 +3195,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3005,7 +3220,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>161</v>
@@ -3013,7 +3228,9 @@
       <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3062,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3077,16 +3294,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3094,7 +3311,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3102,7 +3319,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3111,13 +3328,13 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>166</v>
@@ -3125,9 +3342,7 @@
       <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3152,55 +3367,55 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3208,18 +3423,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3231,15 +3446,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3264,49 +3481,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3537,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3337,24 +3554,26 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3378,13 +3597,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3402,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3420,7 +3639,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3429,12 +3648,12 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3442,7 +3661,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3457,18 +3676,20 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3492,32 +3713,34 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3529,28 +3752,26 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3571,30 +3792,32 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3630,10 +3853,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3645,24 +3868,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3685,16 +3908,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3708,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3744,7 +3967,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3759,24 +3982,24 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3796,20 +4019,18 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3858,7 +4079,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3873,24 +4094,24 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3901,7 +4122,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3910,19 +4131,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3972,13 +4193,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3990,23 +4211,25 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4027,7 +4250,7 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>230</v>
@@ -4035,7 +4258,9 @@
       <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4084,7 +4309,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4099,16 +4324,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4116,7 +4341,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4139,13 +4364,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4196,7 +4421,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4214,7 +4439,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4228,7 +4453,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4254,10 +4479,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4298,19 +4523,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4328,7 +4553,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4342,18 +4567,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4365,19 +4590,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4402,13 +4627,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4426,39 +4651,39 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4478,20 +4703,22 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4516,13 +4743,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4540,7 +4767,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4558,7 +4785,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4567,12 +4794,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4592,31 +4819,35 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4652,10 +4883,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4667,10 +4898,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4679,12 +4910,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4692,7 +4923,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -4704,19 +4935,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4730,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4766,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4784,7 +5015,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4793,12 +5024,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4809,7 +5040,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4818,20 +5049,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4880,13 +5109,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -4895,24 +5124,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4932,19 +5161,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4970,13 +5199,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4994,7 +5223,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5012,21 +5241,21 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5034,10 +5263,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5049,17 +5278,15 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5108,25 +5335,25 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5135,12 +5362,12 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5148,7 +5375,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5157,22 +5384,22 @@
         <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5198,13 +5425,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5222,39 +5449,39 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5274,16 +5501,16 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5310,13 +5537,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5334,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5349,24 +5576,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5374,7 +5601,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5389,15 +5616,17 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5422,13 +5651,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5461,24 +5690,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5486,7 +5715,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5498,19 +5727,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5548,22 +5777,20 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5575,35 +5802,37 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5612,19 +5841,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5674,13 +5903,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5689,24 +5918,24 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5714,10 +5943,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5726,19 +5955,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5788,13 +6017,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5803,24 +6032,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5831,7 +6060,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -5843,16 +6072,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5902,13 +6131,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5917,10 +6146,10 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5934,7 +6163,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5945,7 +6174,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -5957,15 +6186,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6014,13 +6245,13 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
@@ -6032,13 +6263,13 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6046,7 +6277,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6057,7 +6288,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6069,13 +6300,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6126,25 +6357,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6158,18 +6389,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6181,17 +6412,15 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6240,25 +6469,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6272,11 +6501,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6289,26 +6518,24 @@
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6356,7 +6583,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6374,7 +6601,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6388,39 +6615,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6468,25 +6699,25 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6500,7 +6731,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6526,15 +6757,15 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6558,13 +6789,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6582,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6600,21 +6831,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6622,10 +6853,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6637,17 +6868,15 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6672,13 +6901,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6696,13 +6925,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6711,16 +6940,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6728,7 +6957,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6739,7 +6968,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6751,16 +6980,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6810,13 +7039,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -6828,13 +7057,13 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6842,11 +7071,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6865,16 +7094,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6924,7 +7153,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -6939,24 +7168,24 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6967,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -6979,16 +7208,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7014,13 +7243,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7038,13 +7267,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7056,15 +7285,2059 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="L53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ注射薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や注射薬剤の服用に関する指示も含まれる。薬剤払い出しは注射オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1716,55 +1715,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1827,221 +1826,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -2050,13 +2049,13 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2065,20 +2064,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2097,80 +2096,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2179,20 +2178,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2209,80 +2208,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2291,17 +2290,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2323,80 +2322,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2405,23 +2404,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2437,26 +2436,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2468,49 +2467,49 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2523,19 +2522,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2551,80 +2550,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2637,19 +2636,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2665,80 +2664,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2747,23 +2746,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2777,45 +2776,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>135</v>
@@ -2824,31 +2823,31 @@
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2859,23 +2858,23 @@
         <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>139</v>
@@ -2889,59 +2888,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2950,19 +2949,19 @@
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2975,19 +2974,19 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>131</v>
@@ -3005,80 +3004,80 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3087,23 +3086,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>151</v>
@@ -3119,45 +3118,45 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>135</v>
@@ -3166,13 +3165,13 @@
         <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -3190,7 +3189,7 @@
         <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3201,7 +3200,7 @@
         <v>160</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3211,13 +3210,13 @@
         <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>151</v>
@@ -3233,62 +3232,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -3306,7 +3305,7 @@
         <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3315,23 +3314,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>165</v>
@@ -3345,80 +3344,80 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3431,19 +3430,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>131</v>
@@ -3459,38 +3458,38 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>134</v>
@@ -3499,7 +3498,7 @@
         <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>135</v>
@@ -3508,31 +3507,31 @@
         <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3541,17 +3540,17 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3575,26 +3574,26 @@
         <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>180</v>
@@ -3606,46 +3605,46 @@
         <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>129</v>
@@ -3657,20 +3656,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3691,26 +3690,26 @@
         <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>191</v>
@@ -3722,46 +3721,46 @@
         <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>195</v>
@@ -3773,7 +3772,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3783,10 +3782,10 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3807,77 +3806,77 @@
         <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>205</v>
@@ -3889,7 +3888,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3899,10 +3898,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3921,77 +3920,77 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>213</v>
@@ -4003,20 +4002,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4033,77 +4032,77 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>220</v>
@@ -4115,20 +4114,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4147,77 +4146,77 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>228</v>
@@ -4231,23 +4230,23 @@
         <v>229</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>151</v>
@@ -4263,62 +4262,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4336,7 +4335,7 @@
         <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4345,23 +4344,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>165</v>
@@ -4375,80 +4374,80 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4461,19 +4460,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>131</v>
@@ -4489,38 +4488,38 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>134</v>
@@ -4529,7 +4528,7 @@
         <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>135</v>
@@ -4538,31 +4537,31 @@
         <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4571,17 +4570,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>87</v>
@@ -4605,26 +4604,26 @@
         <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>180</v>
@@ -4636,46 +4635,46 @@
         <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>129</v>
@@ -4687,20 +4686,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4721,26 +4720,26 @@
         <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>191</v>
@@ -4752,46 +4751,46 @@
         <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>195</v>
@@ -4803,7 +4802,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4813,10 +4812,10 @@
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4837,77 +4836,77 @@
         <v>200</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>205</v>
@@ -4919,7 +4918,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4929,10 +4928,10 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -4951,77 +4950,77 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>213</v>
@@ -5033,20 +5032,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -5063,77 +5062,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>220</v>
@@ -5145,20 +5144,20 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5177,77 +5176,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>228</v>
@@ -5259,23 +5258,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>240</v>
@@ -5289,62 +5288,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5356,13 +5355,13 @@
         <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5371,7 +5370,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5381,7 +5380,7 @@
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>87</v>
@@ -5403,26 +5402,26 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>180</v>
@@ -5434,19 +5433,19 @@
         <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>245</v>
@@ -5458,7 +5457,7 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
@@ -5476,7 +5475,7 @@
         <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5485,23 +5484,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>256</v>
@@ -5515,26 +5514,26 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>259</v>
@@ -5546,31 +5545,31 @@
         <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5582,13 +5581,13 @@
         <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5597,23 +5596,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>186</v>
@@ -5629,26 +5628,26 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>110</v>
@@ -5660,49 +5659,49 @@
         <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5711,7 +5710,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5721,10 +5720,10 @@
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
@@ -5743,45 +5742,45 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>277</v>
@@ -5796,7 +5795,7 @@
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
@@ -5825,7 +5824,7 @@
         <v>283</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5835,10 +5834,10 @@
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
@@ -5857,50 +5856,50 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>271</v>
@@ -5912,7 +5911,7 @@
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
@@ -5939,7 +5938,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5949,10 +5948,10 @@
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>87</v>
@@ -5971,62 +5970,62 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
@@ -6041,7 +6040,7 @@
         <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>293</v>
@@ -6053,23 +6052,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>295</v>
@@ -6085,62 +6084,62 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6152,13 +6151,13 @@
         <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -6167,23 +6166,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>301</v>
@@ -6199,68 +6198,68 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>304</v>
@@ -6269,10 +6268,10 @@
         <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -6281,23 +6280,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>307</v>
@@ -6311,62 +6310,62 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
@@ -6378,13 +6377,13 @@
         <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6393,23 +6392,23 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>165</v>
@@ -6423,80 +6422,80 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6509,19 +6508,19 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>131</v>
@@ -6537,80 +6536,80 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6623,13 +6622,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>87</v>
@@ -6653,80 +6652,80 @@
         <v>148</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6735,23 +6734,23 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>186</v>
@@ -6767,26 +6766,26 @@
         <v>322</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>259</v>
@@ -6798,49 +6797,49 @@
         <v>324</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6849,7 +6848,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6859,13 +6858,13 @@
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>327</v>
@@ -6879,50 +6878,50 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>326</v>
@@ -6934,7 +6933,7 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
@@ -6946,13 +6945,13 @@
         <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -6961,23 +6960,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>333</v>
@@ -6993,80 +6992,80 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -7075,23 +7074,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>338</v>
@@ -7107,62 +7106,62 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>98</v>
@@ -7174,7 +7173,7 @@
         <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>344</v>
@@ -7189,23 +7188,23 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>186</v>
@@ -7221,26 +7220,26 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>259</v>
@@ -7252,43 +7251,43 @@
         <v>351</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>353</v>
@@ -7303,7 +7302,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7313,13 +7312,13 @@
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>356</v>
@@ -7335,56 +7334,56 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7396,16 +7395,16 @@
         <v>360</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>362</v>
@@ -7417,23 +7416,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>356</v>
@@ -7449,56 +7448,56 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7510,16 +7509,16 @@
         <v>360</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>362</v>
@@ -7531,20 +7530,20 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>87</v>
@@ -7561,74 +7560,74 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>370</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>371</v>
@@ -7643,7 +7642,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7653,13 +7652,13 @@
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>367</v>
@@ -7673,62 +7672,62 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
@@ -7740,7 +7739,7 @@
         <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>371</v>
@@ -7755,23 +7754,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>333</v>
@@ -7787,74 +7786,74 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>382</v>
@@ -7869,23 +7868,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>385</v>
@@ -7901,80 +7900,80 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -7983,23 +7982,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>391</v>
@@ -8015,62 +8014,62 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -8082,10 +8081,10 @@
         <v>396</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>397</v>
@@ -8097,23 +8096,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>399</v>
@@ -8129,80 +8128,80 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -8211,23 +8210,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>307</v>
@@ -8241,80 +8240,80 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8323,23 +8322,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>165</v>
@@ -8353,80 +8352,80 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -8439,19 +8438,19 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>131</v>
@@ -8467,80 +8466,80 @@
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -8553,13 +8552,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>87</v>
@@ -8583,80 +8582,80 @@
         <v>148</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -8665,7 +8664,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8675,13 +8674,13 @@
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>412</v>
@@ -8695,50 +8694,50 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>411</v>
@@ -8750,25 +8749,25 @@
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
@@ -8777,23 +8776,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>186</v>
@@ -8809,26 +8808,26 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>259</v>
@@ -8840,43 +8839,43 @@
         <v>421</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>422</v>
@@ -8891,23 +8890,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>186</v>
@@ -8923,26 +8922,26 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
         <v>259</v>
@@ -8954,49 +8953,49 @@
         <v>428</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>424</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -9005,23 +9004,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>432</v>
@@ -9037,80 +9036,80 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>431</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>435</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>436</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -9123,19 +9122,19 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>439</v>
@@ -9151,80 +9150,80 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>443</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -9233,23 +9232,23 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>445</v>
@@ -9265,80 +9264,80 @@
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>444</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>449</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
